--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Ccl20-Cxcr3.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Ccl20-Cxcr3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -74,6 +74,9 @@
   </si>
   <si>
     <t>Edge total expression derived specificity</t>
+  </si>
+  <si>
+    <t>ECs</t>
   </si>
   <si>
     <t>FAPs</t>
@@ -443,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T3"/>
+  <dimension ref="A1:T5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -516,13 +519,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" t="s">
         <v>21</v>
-      </c>
-      <c r="C2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D2" t="s">
-        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -531,16 +534,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.06980766666666667</v>
+        <v>0.07886166666666666</v>
       </c>
       <c r="H2">
-        <v>0.209423</v>
+        <v>0.236585</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.5304501264551309</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.5304501264551309</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -555,22 +558,22 @@
         <v>0.155824</v>
       </c>
       <c r="O2">
-        <v>0.03788844568234288</v>
+        <v>0.02773017886769741</v>
       </c>
       <c r="P2">
-        <v>0.03788844568234288</v>
+        <v>0.02773017886769741</v>
       </c>
       <c r="Q2">
-        <v>0.003625903283555556</v>
+        <v>0.004096180115555555</v>
       </c>
       <c r="R2">
-        <v>0.032633129552</v>
+        <v>0.03686562104</v>
       </c>
       <c r="S2">
-        <v>0.03788844568234288</v>
+        <v>0.01470947688699349</v>
       </c>
       <c r="T2">
-        <v>0.03788844568234288</v>
+        <v>0.01470947688699349</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -578,13 +581,13 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -593,16 +596,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.06980766666666667</v>
+        <v>0.07886166666666666</v>
       </c>
       <c r="H3">
-        <v>0.209423</v>
+        <v>0.236585</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.5304501264551309</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.5304501264551309</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -611,28 +614,152 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.318960333333333</v>
+        <v>1.821156333333333</v>
       </c>
       <c r="N3">
-        <v>3.956881</v>
+        <v>5.463469</v>
       </c>
       <c r="O3">
-        <v>0.962111554317657</v>
+        <v>0.9722698211323025</v>
       </c>
       <c r="P3">
-        <v>0.9621115543176572</v>
+        <v>0.9722698211323026</v>
       </c>
       <c r="Q3">
-        <v>0.09207354329588889</v>
+        <v>0.1436194237072222</v>
       </c>
       <c r="R3">
-        <v>0.828661889663</v>
+        <v>1.292574813365</v>
       </c>
       <c r="S3">
-        <v>0.962111554317657</v>
+        <v>0.5157406495681374</v>
       </c>
       <c r="T3">
-        <v>0.9621115543176572</v>
+        <v>0.5157406495681375</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
+      <c r="A4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G4">
+        <v>0.06980766666666667</v>
+      </c>
+      <c r="H4">
+        <v>0.209423</v>
+      </c>
+      <c r="I4">
+        <v>0.4695498735448692</v>
+      </c>
+      <c r="J4">
+        <v>0.4695498735448692</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M4">
+        <v>0.05194133333333333</v>
+      </c>
+      <c r="N4">
+        <v>0.155824</v>
+      </c>
+      <c r="O4">
+        <v>0.02773017886769741</v>
+      </c>
+      <c r="P4">
+        <v>0.02773017886769741</v>
+      </c>
+      <c r="Q4">
+        <v>0.003625903283555556</v>
+      </c>
+      <c r="R4">
+        <v>0.032633129552</v>
+      </c>
+      <c r="S4">
+        <v>0.01302070198070392</v>
+      </c>
+      <c r="T4">
+        <v>0.01302070198070392</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G5">
+        <v>0.06980766666666667</v>
+      </c>
+      <c r="H5">
+        <v>0.209423</v>
+      </c>
+      <c r="I5">
+        <v>0.4695498735448692</v>
+      </c>
+      <c r="J5">
+        <v>0.4695498735448692</v>
+      </c>
+      <c r="K5">
+        <v>3</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>1.821156333333333</v>
+      </c>
+      <c r="N5">
+        <v>5.463469</v>
+      </c>
+      <c r="O5">
+        <v>0.9722698211323025</v>
+      </c>
+      <c r="P5">
+        <v>0.9722698211323026</v>
+      </c>
+      <c r="Q5">
+        <v>0.1271306742652222</v>
+      </c>
+      <c r="R5">
+        <v>1.144176068387</v>
+      </c>
+      <c r="S5">
+        <v>0.4565291715641653</v>
+      </c>
+      <c r="T5">
+        <v>0.4565291715641653</v>
       </c>
     </row>
   </sheetData>
